--- a/Tusk_rect_50_50.xlsx
+++ b/Tusk_rect_50_50.xlsx
@@ -340,7 +340,7 @@
   <dimension ref="B2:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="S2" sqref="S2:S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,7 +353,7 @@
         <v>300</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -362,7 +362,7 @@
         <v>350</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -371,7 +371,7 @@
         <v>350</v>
       </c>
       <c r="N2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q2">
         <v>50</v>
@@ -380,7 +380,7 @@
         <v>300</v>
       </c>
       <c r="S2">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>301</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -400,7 +400,7 @@
         <v>350</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>50</v>
@@ -409,7 +409,7 @@
         <v>349</v>
       </c>
       <c r="N3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q3">
         <v>49</v>
@@ -418,7 +418,7 @@
         <v>300</v>
       </c>
       <c r="S3">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>302</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>350</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -447,7 +447,7 @@
         <v>348</v>
       </c>
       <c r="N4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q4">
         <v>48</v>
@@ -456,7 +456,7 @@
         <v>300</v>
       </c>
       <c r="S4">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>303</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -476,7 +476,7 @@
         <v>350</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>50</v>
@@ -485,7 +485,7 @@
         <v>347</v>
       </c>
       <c r="N5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q5">
         <v>47</v>
@@ -494,7 +494,7 @@
         <v>300</v>
       </c>
       <c r="S5">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>304</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -514,7 +514,7 @@
         <v>350</v>
       </c>
       <c r="I6">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -523,7 +523,7 @@
         <v>346</v>
       </c>
       <c r="N6">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q6">
         <v>46</v>
@@ -532,7 +532,7 @@
         <v>300</v>
       </c>
       <c r="S6">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>305</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -552,7 +552,7 @@
         <v>350</v>
       </c>
       <c r="I7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -561,7 +561,7 @@
         <v>345</v>
       </c>
       <c r="N7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q7">
         <v>45</v>
@@ -570,7 +570,7 @@
         <v>300</v>
       </c>
       <c r="S7">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>306</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -590,7 +590,7 @@
         <v>350</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>50</v>
@@ -599,7 +599,7 @@
         <v>344</v>
       </c>
       <c r="N8">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q8">
         <v>44</v>
@@ -608,7 +608,7 @@
         <v>300</v>
       </c>
       <c r="S8">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>307</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -628,7 +628,7 @@
         <v>350</v>
       </c>
       <c r="I9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>50</v>
@@ -637,7 +637,7 @@
         <v>343</v>
       </c>
       <c r="N9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q9">
         <v>43</v>
@@ -646,7 +646,7 @@
         <v>300</v>
       </c>
       <c r="S9">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>308</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>350</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -675,7 +675,7 @@
         <v>342</v>
       </c>
       <c r="N10">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q10">
         <v>42</v>
@@ -684,7 +684,7 @@
         <v>300</v>
       </c>
       <c r="S10">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>309</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -704,7 +704,7 @@
         <v>350</v>
       </c>
       <c r="I11">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -713,7 +713,7 @@
         <v>341</v>
       </c>
       <c r="N11">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q11">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>300</v>
       </c>
       <c r="S11">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>310</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -742,7 +742,7 @@
         <v>350</v>
       </c>
       <c r="I12">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -751,7 +751,7 @@
         <v>340</v>
       </c>
       <c r="N12">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q12">
         <v>40</v>
@@ -760,7 +760,7 @@
         <v>300</v>
       </c>
       <c r="S12">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>311</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -780,7 +780,7 @@
         <v>350</v>
       </c>
       <c r="I13">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -789,7 +789,7 @@
         <v>339</v>
       </c>
       <c r="N13">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q13">
         <v>39</v>
@@ -798,7 +798,7 @@
         <v>300</v>
       </c>
       <c r="S13">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>312</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -818,7 +818,7 @@
         <v>350</v>
       </c>
       <c r="I14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>50</v>
@@ -827,7 +827,7 @@
         <v>338</v>
       </c>
       <c r="N14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q14">
         <v>38</v>
@@ -836,7 +836,7 @@
         <v>300</v>
       </c>
       <c r="S14">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>313</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -856,7 +856,7 @@
         <v>350</v>
       </c>
       <c r="I15">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -865,7 +865,7 @@
         <v>337</v>
       </c>
       <c r="N15">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q15">
         <v>37</v>
@@ -874,7 +874,7 @@
         <v>300</v>
       </c>
       <c r="S15">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>314</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -894,7 +894,7 @@
         <v>350</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>50</v>
@@ -903,7 +903,7 @@
         <v>336</v>
       </c>
       <c r="N16">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q16">
         <v>36</v>
@@ -912,7 +912,7 @@
         <v>300</v>
       </c>
       <c r="S16">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>315</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -932,7 +932,7 @@
         <v>350</v>
       </c>
       <c r="I17">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -941,7 +941,7 @@
         <v>335</v>
       </c>
       <c r="N17">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q17">
         <v>35</v>
@@ -950,7 +950,7 @@
         <v>300</v>
       </c>
       <c r="S17">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>316</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -970,7 +970,7 @@
         <v>350</v>
       </c>
       <c r="I18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L18">
         <v>50</v>
@@ -979,7 +979,7 @@
         <v>334</v>
       </c>
       <c r="N18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q18">
         <v>34</v>
@@ -988,7 +988,7 @@
         <v>300</v>
       </c>
       <c r="S18">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>317</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -1008,7 +1008,7 @@
         <v>350</v>
       </c>
       <c r="I19">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -1017,7 +1017,7 @@
         <v>333</v>
       </c>
       <c r="N19">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q19">
         <v>33</v>
@@ -1026,7 +1026,7 @@
         <v>300</v>
       </c>
       <c r="S19">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>318</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -1046,7 +1046,7 @@
         <v>350</v>
       </c>
       <c r="I20">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L20">
         <v>50</v>
@@ -1055,7 +1055,7 @@
         <v>332</v>
       </c>
       <c r="N20">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q20">
         <v>32</v>
@@ -1064,7 +1064,7 @@
         <v>300</v>
       </c>
       <c r="S20">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>319</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -1084,7 +1084,7 @@
         <v>350</v>
       </c>
       <c r="I21">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -1093,7 +1093,7 @@
         <v>331</v>
       </c>
       <c r="N21">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q21">
         <v>31</v>
@@ -1102,7 +1102,7 @@
         <v>300</v>
       </c>
       <c r="S21">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>320</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1122,7 +1122,7 @@
         <v>350</v>
       </c>
       <c r="I22">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1131,7 +1131,7 @@
         <v>330</v>
       </c>
       <c r="N22">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q22">
         <v>30</v>
@@ -1140,7 +1140,7 @@
         <v>300</v>
       </c>
       <c r="S22">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>321</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -1160,7 +1160,7 @@
         <v>350</v>
       </c>
       <c r="I23">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L23">
         <v>50</v>
@@ -1169,7 +1169,7 @@
         <v>329</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q23">
         <v>29</v>
@@ -1178,7 +1178,7 @@
         <v>300</v>
       </c>
       <c r="S23">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>322</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -1198,7 +1198,7 @@
         <v>350</v>
       </c>
       <c r="I24">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L24">
         <v>50</v>
@@ -1207,7 +1207,7 @@
         <v>328</v>
       </c>
       <c r="N24">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q24">
         <v>28</v>
@@ -1216,7 +1216,7 @@
         <v>300</v>
       </c>
       <c r="S24">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>323</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1236,7 +1236,7 @@
         <v>350</v>
       </c>
       <c r="I25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L25">
         <v>50</v>
@@ -1245,7 +1245,7 @@
         <v>327</v>
       </c>
       <c r="N25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q25">
         <v>27</v>
@@ -1254,7 +1254,7 @@
         <v>300</v>
       </c>
       <c r="S25">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>324</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -1274,7 +1274,7 @@
         <v>350</v>
       </c>
       <c r="I26">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L26">
         <v>50</v>
@@ -1283,7 +1283,7 @@
         <v>326</v>
       </c>
       <c r="N26">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q26">
         <v>26</v>
@@ -1292,7 +1292,7 @@
         <v>300</v>
       </c>
       <c r="S26">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>325</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1312,7 +1312,7 @@
         <v>350</v>
       </c>
       <c r="I27">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L27">
         <v>50</v>
@@ -1321,7 +1321,7 @@
         <v>325</v>
       </c>
       <c r="N27">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q27">
         <v>25</v>
@@ -1330,7 +1330,7 @@
         <v>300</v>
       </c>
       <c r="S27">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>326</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -1350,7 +1350,7 @@
         <v>350</v>
       </c>
       <c r="I28">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L28">
         <v>50</v>
@@ -1359,7 +1359,7 @@
         <v>324</v>
       </c>
       <c r="N28">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q28">
         <v>24</v>
@@ -1368,7 +1368,7 @@
         <v>300</v>
       </c>
       <c r="S28">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>327</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -1388,7 +1388,7 @@
         <v>350</v>
       </c>
       <c r="I29">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L29">
         <v>50</v>
@@ -1397,7 +1397,7 @@
         <v>323</v>
       </c>
       <c r="N29">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q29">
         <v>23</v>
@@ -1406,7 +1406,7 @@
         <v>300</v>
       </c>
       <c r="S29">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>328</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G30">
         <v>28</v>
@@ -1426,7 +1426,7 @@
         <v>350</v>
       </c>
       <c r="I30">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L30">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>322</v>
       </c>
       <c r="N30">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q30">
         <v>22</v>
@@ -1444,7 +1444,7 @@
         <v>300</v>
       </c>
       <c r="S30">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>329</v>
       </c>
       <c r="D31">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <v>29</v>
@@ -1464,7 +1464,7 @@
         <v>350</v>
       </c>
       <c r="I31">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L31">
         <v>50</v>
@@ -1473,7 +1473,7 @@
         <v>321</v>
       </c>
       <c r="N31">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q31">
         <v>21</v>
@@ -1482,7 +1482,7 @@
         <v>300</v>
       </c>
       <c r="S31">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>330</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -1502,7 +1502,7 @@
         <v>350</v>
       </c>
       <c r="I32">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -1511,7 +1511,7 @@
         <v>320</v>
       </c>
       <c r="N32">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -1520,7 +1520,7 @@
         <v>300</v>
       </c>
       <c r="S32">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>331</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -1540,7 +1540,7 @@
         <v>350</v>
       </c>
       <c r="I33">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L33">
         <v>50</v>
@@ -1549,7 +1549,7 @@
         <v>319</v>
       </c>
       <c r="N33">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q33">
         <v>19</v>
@@ -1558,7 +1558,7 @@
         <v>300</v>
       </c>
       <c r="S33">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>332</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>32</v>
@@ -1578,7 +1578,7 @@
         <v>350</v>
       </c>
       <c r="I34">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L34">
         <v>50</v>
@@ -1587,7 +1587,7 @@
         <v>318</v>
       </c>
       <c r="N34">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -1596,7 +1596,7 @@
         <v>300</v>
       </c>
       <c r="S34">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>333</v>
       </c>
       <c r="D35">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>33</v>
@@ -1616,7 +1616,7 @@
         <v>350</v>
       </c>
       <c r="I35">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L35">
         <v>50</v>
@@ -1625,7 +1625,7 @@
         <v>317</v>
       </c>
       <c r="N35">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q35">
         <v>17</v>
@@ -1634,7 +1634,7 @@
         <v>300</v>
       </c>
       <c r="S35">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>334</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -1654,7 +1654,7 @@
         <v>350</v>
       </c>
       <c r="I36">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L36">
         <v>50</v>
@@ -1663,7 +1663,7 @@
         <v>316</v>
       </c>
       <c r="N36">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q36">
         <v>16</v>
@@ -1672,7 +1672,7 @@
         <v>300</v>
       </c>
       <c r="S36">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>335</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G37">
         <v>35</v>
@@ -1692,7 +1692,7 @@
         <v>350</v>
       </c>
       <c r="I37">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L37">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         <v>315</v>
       </c>
       <c r="N37">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -1710,7 +1710,7 @@
         <v>300</v>
       </c>
       <c r="S37">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>336</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>36</v>
@@ -1730,7 +1730,7 @@
         <v>350</v>
       </c>
       <c r="I38">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -1739,7 +1739,7 @@
         <v>314</v>
       </c>
       <c r="N38">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -1748,7 +1748,7 @@
         <v>300</v>
       </c>
       <c r="S38">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>337</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G39">
         <v>37</v>
@@ -1768,7 +1768,7 @@
         <v>350</v>
       </c>
       <c r="I39">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -1777,7 +1777,7 @@
         <v>313</v>
       </c>
       <c r="N39">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q39">
         <v>13</v>
@@ -1786,7 +1786,7 @@
         <v>300</v>
       </c>
       <c r="S39">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>338</v>
       </c>
       <c r="D40">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>38</v>
@@ -1806,7 +1806,7 @@
         <v>350</v>
       </c>
       <c r="I40">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -1815,7 +1815,7 @@
         <v>312</v>
       </c>
       <c r="N40">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -1824,7 +1824,7 @@
         <v>300</v>
       </c>
       <c r="S40">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>339</v>
       </c>
       <c r="D41">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -1844,7 +1844,7 @@
         <v>350</v>
       </c>
       <c r="I41">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -1853,7 +1853,7 @@
         <v>311</v>
       </c>
       <c r="N41">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -1862,7 +1862,7 @@
         <v>300</v>
       </c>
       <c r="S41">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>340</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>40</v>
@@ -1882,7 +1882,7 @@
         <v>350</v>
       </c>
       <c r="I42">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -1891,7 +1891,7 @@
         <v>310</v>
       </c>
       <c r="N42">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -1900,7 +1900,7 @@
         <v>300</v>
       </c>
       <c r="S42">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>341</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G43">
         <v>41</v>
@@ -1920,7 +1920,7 @@
         <v>350</v>
       </c>
       <c r="I43">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L43">
         <v>50</v>
@@ -1929,7 +1929,7 @@
         <v>309</v>
       </c>
       <c r="N43">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -1938,7 +1938,7 @@
         <v>300</v>
       </c>
       <c r="S43">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>342</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>42</v>
@@ -1958,7 +1958,7 @@
         <v>350</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L44">
         <v>50</v>
@@ -1967,7 +1967,7 @@
         <v>308</v>
       </c>
       <c r="N44">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -1976,7 +1976,7 @@
         <v>300</v>
       </c>
       <c r="S44">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>343</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>43</v>
@@ -1996,7 +1996,7 @@
         <v>350</v>
       </c>
       <c r="I45">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L45">
         <v>50</v>
@@ -2005,7 +2005,7 @@
         <v>307</v>
       </c>
       <c r="N45">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -2014,7 +2014,7 @@
         <v>300</v>
       </c>
       <c r="S45">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>344</v>
       </c>
       <c r="D46">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G46">
         <v>44</v>
@@ -2034,7 +2034,7 @@
         <v>350</v>
       </c>
       <c r="I46">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L46">
         <v>50</v>
@@ -2043,7 +2043,7 @@
         <v>306</v>
       </c>
       <c r="N46">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -2052,7 +2052,7 @@
         <v>300</v>
       </c>
       <c r="S46">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>345</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2072,7 +2072,7 @@
         <v>350</v>
       </c>
       <c r="I47">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -2081,7 +2081,7 @@
         <v>305</v>
       </c>
       <c r="N47">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -2090,7 +2090,7 @@
         <v>300</v>
       </c>
       <c r="S47">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>346</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>46</v>
@@ -2110,7 +2110,7 @@
         <v>350</v>
       </c>
       <c r="I48">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -2119,7 +2119,7 @@
         <v>304</v>
       </c>
       <c r="N48">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -2128,7 +2128,7 @@
         <v>300</v>
       </c>
       <c r="S48">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>347</v>
       </c>
       <c r="D49">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G49">
         <v>47</v>
@@ -2148,7 +2148,7 @@
         <v>350</v>
       </c>
       <c r="I49">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -2157,7 +2157,7 @@
         <v>303</v>
       </c>
       <c r="N49">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>300</v>
       </c>
       <c r="S49">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>348</v>
       </c>
       <c r="D50">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>48</v>
@@ -2186,7 +2186,7 @@
         <v>350</v>
       </c>
       <c r="I50">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -2195,7 +2195,7 @@
         <v>302</v>
       </c>
       <c r="N50">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -2204,7 +2204,7 @@
         <v>300</v>
       </c>
       <c r="S50">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>349</v>
       </c>
       <c r="D51">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -2224,7 +2224,7 @@
         <v>350</v>
       </c>
       <c r="I51">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>301</v>
       </c>
       <c r="N51">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>300</v>
       </c>
       <c r="S51">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>350</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -2262,7 +2262,7 @@
         <v>350</v>
       </c>
       <c r="I52">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -2271,7 +2271,7 @@
         <v>300</v>
       </c>
       <c r="N52">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>300</v>
       </c>
       <c r="S52">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
